--- a/frontend/public/excel_folder/E向陽多元-S01-2021.11.05 (養殖)-h.xlsx
+++ b/frontend/public/excel_folder/E向陽多元-S01-2021.11.05 (養殖)-h.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8985" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8985"/>
   </bookViews>
   <sheets>
     <sheet name="1-1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="56">
   <si>
     <t>工程名稱</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -476,6 +476,16 @@
   <si>
     <t>施工</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目標</t>
+  </si>
+  <si>
+    <t>目標</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -1794,8 +1804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2026,7 +2036,9 @@
       <c r="D6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="47" t="s">
+        <v>53</v>
+      </c>
       <c r="F6" s="47" t="s">
         <v>31</v>
       </c>
@@ -2113,18 +2125,10 @@
       <c r="E7" s="61">
         <v>3</v>
       </c>
-      <c r="F7" s="49">
-        <v>789</v>
-      </c>
-      <c r="G7" s="49">
-        <v>789</v>
-      </c>
-      <c r="H7" s="37">
-        <v>456</v>
-      </c>
-      <c r="I7" s="37">
-        <v>456</v>
-      </c>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
@@ -3514,12 +3518,24 @@
       <c r="E7" s="61">
         <v>3</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
+      <c r="F7" s="49">
+        <v>3</v>
+      </c>
+      <c r="G7" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="37">
+        <v>34</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="37">
+        <v>12345</v>
+      </c>
+      <c r="K7" s="37">
+        <v>12345</v>
+      </c>
       <c r="L7" s="37"/>
       <c r="M7" s="37"/>
       <c r="N7" s="37"/>
@@ -4905,8 +4921,12 @@
       <c r="E7" s="61">
         <v>3</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
+      <c r="F7" s="49">
+        <v>80</v>
+      </c>
+      <c r="G7" s="49">
+        <v>80</v>
+      </c>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
@@ -5977,8 +5997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6220,7 +6240,7 @@
         <v>52</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G6" s="47" t="s">
         <v>31</v>
